--- a/incquery-deps-documentation/measurements/lsa-client.xlsx
+++ b/incquery-deps-documentation/measurements/lsa-client.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="375" windowWidth="17955" windowHeight="7470"/>
+    <workbookView xWindow="480" yWindow="375" windowWidth="7500" windowHeight="5490"/>
   </bookViews>
   <sheets>
     <sheet name="lsa-client" sheetId="1" r:id="rId1"/>
@@ -1238,7 +1238,7 @@
   <dimension ref="A1:K517"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="W26" sqref="W26"/>
+      <selection activeCell="S21" sqref="S21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
